--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/SABR/SABR SwapVolSurface Examples v2.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/SABR/SABR SwapVolSurface Examples v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\SABR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\SABR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36B9FA5-16FC-4ADF-874B-51E200B33D7C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0685FF9-F52D-41A7-8E0E-0E9CC6D3BF1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="9450" windowHeight="6000" tabRatio="835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1575" yWindow="630" windowWidth="26370" windowHeight="14820" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="26" r:id="rId1"/>
@@ -27,7 +27,15 @@
     <definedName name="Strikes">'AUD Fixed Strike Bootstrap'!$F$6:$Q$6</definedName>
     <definedName name="Vols">'AUD Fixed Strike Bootstrap'!$F$7:$Q$17</definedName>
   </definedNames>
-  <calcPr calcId="179017" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -5394,16 +5402,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="941"/>
                 <c:pt idx="0">
-                  <c:v>0.25336791476042198</c:v>
+                  <c:v>0.24588493201532199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25338558145953399</c:v>
+                  <c:v>0.24603240503922499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25340451751735998</c:v>
+                  <c:v>0.24618276758433399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.253424679162912</c:v>
+                  <c:v>0.24633592001198701</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.253446022625198</c:v>
@@ -14550,40 +14558,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.60065723760090894</c:v>
+                  <c:v>0.62294100936694119</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51900986835622209</c:v>
+                  <c:v>0.52706307758747573</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46072469085067391</c:v>
+                  <c:v>0.4583641811110179</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41567934055637445</c:v>
+                  <c:v>0.40501501180018468</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3793427461338969</c:v>
+                  <c:v>0.36179692149101256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34934759132563126</c:v>
+                  <c:v>0.32608998491491081</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32436149646388868</c:v>
+                  <c:v>0.29657701261289116</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28669310909429618</c:v>
+                  <c:v>0.25437697236994761</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26334834861091944</c:v>
+                  <c:v>0.23380066491501766</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2524300708310297</c:v>
+                  <c:v>0.22995944109696712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.25073942900797752</c:v>
+                  <c:v>0.23469341385796927</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.25447064600277458</c:v>
+                  <c:v>0.24261311083935994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14992,40 +15000,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.50107168656273204</c:v>
+                  <c:v>0.49269119942659501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43181162375805998</c:v>
+                  <c:v>0.428714762897139</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38864377756854601</c:v>
+                  <c:v>0.38868997141976602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.354326987104157</c:v>
+                  <c:v>0.35764653339646701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32667045064934302</c:v>
+                  <c:v>0.33062471707673502</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30358195158894502</c:v>
+                  <c:v>0.30584895658911798</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28252150637446799</c:v>
+                  <c:v>0.282687006687179</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.246085826214125</c:v>
+                  <c:v>0.24361212982164401</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.224802807883416</c:v>
+                  <c:v>0.22562695703413099</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.21503281610916899</c:v>
+                  <c:v>0.22021115087018001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.20823477048899999</c:v>
+                  <c:v>0.21698418453277701</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.202287780593956</c:v>
+                  <c:v>0.21422937614836299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15126,40 +15134,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.49924639300110535</c:v>
+                  <c:v>0.51984166084930816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43481898643306816</c:v>
+                  <c:v>0.44090532534682109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38904401345962669</c:v>
+                  <c:v>0.38444783779959213</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35375545205051528</c:v>
+                  <c:v>0.34071311685039196</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3252902964135736</c:v>
+                  <c:v>0.30540128491090995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30170878359125541</c:v>
+                  <c:v>0.27635285920478136</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28188044777784493</c:v>
+                  <c:v>0.25246999638775075</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25094277510555946</c:v>
+                  <c:v>0.2185560902529729</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22932858538622677</c:v>
+                  <c:v>0.2018745517490419</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.21538747942511571</c:v>
+                  <c:v>0.19826906935467298</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.20764712833135357</c:v>
+                  <c:v>0.2015479131516339</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.20444860743888787</c:v>
+                  <c:v>0.20754813989891371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15568,40 +15576,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.48523754552468501</c:v>
+                  <c:v>0.45503601981902198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41851621859649102</c:v>
+                  <c:v>0.39604996142853499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.376702619389226</c:v>
+                  <c:v>0.36125515840828099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34394574784167797</c:v>
+                  <c:v>0.33414856561132</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.317038020120749</c:v>
+                  <c:v>0.30922922146894899</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.29507356474010299</c:v>
+                  <c:v>0.28574042016807</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.27309289154587302</c:v>
+                  <c:v>0.26243650160293702</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23709289154587301</c:v>
+                  <c:v>0.22229678254893701</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.215979436226439</c:v>
+                  <c:v>0.20117300624196099</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20500061926680099</c:v>
+                  <c:v>0.192582033739786</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.199036163886156</c:v>
+                  <c:v>0.18837102520584301</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.19413029239981999</c:v>
+                  <c:v>0.18439401492039301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15702,40 +15710,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.49302809960090938</c:v>
+                  <c:v>0.51388244209957279</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42585014287774392</c:v>
+                  <c:v>0.43140550486263174</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37767489507659935</c:v>
+                  <c:v>0.37186230860114283</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34019874195459826</c:v>
+                  <c:v>0.32528794401203703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.30968522480387223</c:v>
+                  <c:v>0.28728420964777113</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28415915459572466</c:v>
+                  <c:v>0.25568403220929292</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26248411472083782</c:v>
+                  <c:v>0.22950794732989116</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22827133590783341</c:v>
+                  <c:v>0.1932373378580777</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2044593888462066</c:v>
+                  <c:v>0.1798183525309652</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.19019906056205602</c:v>
+                  <c:v>0.18267973918249142</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.18418549112810934</c:v>
+                  <c:v>0.19170166676571873</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.18393158712252022</c:v>
+                  <c:v>0.20204316547720863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18122,7 +18130,7 @@
     <row r="32" spans="2:13">
       <c r="B32" s="22" t="str">
         <f ca="1">"Last Update "&amp;TEXT(TODAY(),"dd-mmm-yy")</f>
-        <v>Last Update 22-Apr-18</v>
+        <v>Last Update 02-Jul-19</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -18170,7 +18178,7 @@
   </sheetPr>
   <dimension ref="B1:Q943"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -18294,7 +18302,7 @@
       </c>
       <c r="J3" s="69">
         <f>_xll.HLV5r3.Financial.Cache.ComputeVolatility($C$7,$C$2,$C$8,I3)</f>
-        <v>0.25336791476042198</v>
+        <v>0.24588493201532199</v>
       </c>
       <c r="M3" s="91" t="s">
         <v>90</v>
@@ -18322,7 +18330,7 @@
       </c>
       <c r="J4" s="69">
         <f>_xll.HLV5r3.Financial.Cache.ComputeVolatility($C$7,$C$2,$C$8,I4)</f>
-        <v>0.25338558145953399</v>
+        <v>0.24603240503922499</v>
       </c>
       <c r="L4" s="90">
         <f>$C$8+1</f>
@@ -18343,7 +18351,7 @@
         <v>ImpliedQuote</v>
       </c>
       <c r="Q4" s="77">
-        <v>6.7271142681325294E-2</v>
+        <v>5.0010781252099665E-2</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="13.5" thickBot="1">
@@ -18368,7 +18376,7 @@
       </c>
       <c r="J5" s="69">
         <f>_xll.HLV5r3.Financial.Cache.ComputeVolatility($C$7,$C$2,$C$8,I5)</f>
-        <v>0.25340451751735998</v>
+        <v>0.24618276758433399</v>
       </c>
       <c r="L5" s="90">
         <f>$C$8+91</f>
@@ -18389,7 +18397,7 @@
         <v>ImpliedQuote</v>
       </c>
       <c r="Q5" s="77">
-        <v>6.6703895033848437E-2</v>
+        <v>5.0004528060043615E-2</v>
       </c>
     </row>
     <row r="6" spans="2:17">
@@ -18414,7 +18422,7 @@
       </c>
       <c r="J6" s="69">
         <f>_xll.HLV5r3.Financial.Cache.ComputeVolatility($C$7,$C$2,$C$8,I6)</f>
-        <v>0.253424679162912</v>
+        <v>0.24633592001198701</v>
       </c>
       <c r="L6" s="90">
         <f>$C$8+181</f>
@@ -18435,7 +18443,7 @@
         <v>ImpliedQuote</v>
       </c>
       <c r="Q6" s="77">
-        <v>6.675220773085358E-2</v>
+        <v>4.9981358228183517E-2</v>
       </c>
     </row>
     <row r="7" spans="2:17">
@@ -18481,7 +18489,7 @@
         <v>ImpliedQuote</v>
       </c>
       <c r="Q7" s="77">
-        <v>6.62251562592161E-2</v>
+        <v>4.996859373953657E-2</v>
       </c>
     </row>
     <row r="8" spans="2:17">
@@ -18527,7 +18535,7 @@
         <v>ImpliedQuote</v>
       </c>
       <c r="Q8" s="77">
-        <v>6.5506925428825871E-2</v>
+        <v>4.9953614569815723E-2</v>
       </c>
     </row>
     <row r="9" spans="2:17">
@@ -18574,7 +18582,7 @@
         <v>ImpliedQuote</v>
       </c>
       <c r="Q9" s="77">
-        <v>9.1983376320997706E-2</v>
+        <v>5.0036503688452749E-2</v>
       </c>
     </row>
     <row r="10" spans="2:17">
@@ -18620,7 +18628,7 @@
         <v>ImpliedQuote</v>
       </c>
       <c r="Q10" s="77">
-        <v>6.7373226797624586E-2</v>
+        <v>4.8670648994731662E-2</v>
       </c>
     </row>
     <row r="11" spans="2:17">
@@ -18666,7 +18674,7 @@
         <v>ImpliedQuote</v>
       </c>
       <c r="Q11" s="77">
-        <v>6.312674502493161E-2</v>
+        <v>5.0092893177125924E-2</v>
       </c>
     </row>
     <row r="12" spans="2:17">
@@ -18712,7 +18720,7 @@
         <v>ImpliedQuote</v>
       </c>
       <c r="Q12" s="77">
-        <v>6.3874679894490791E-2</v>
+        <v>5.0087858613711567E-2</v>
       </c>
     </row>
     <row r="13" spans="2:17">
@@ -18758,7 +18766,7 @@
         <v>ImpliedQuote</v>
       </c>
       <c r="Q13" s="77">
-        <v>6.3897755511628296E-2</v>
+        <v>5.0088763688080164E-2</v>
       </c>
     </row>
     <row r="14" spans="2:17">
@@ -18804,7 +18812,7 @@
         <v>ImpliedQuote</v>
       </c>
       <c r="Q14" s="77">
-        <v>6.0956393099534295E-2</v>
+        <v>5.0088037037089611E-2</v>
       </c>
     </row>
     <row r="15" spans="2:17">
@@ -28188,7 +28196,7 @@
   </sheetPr>
   <dimension ref="B1:U942"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -28416,7 +28424,7 @@
       </c>
       <c r="R7" s="81">
         <f>_xll.HLV5r3.Analytics.Miscellaneous.LinearInterp($F$19:$Q$30,'AUD ATM Bootstrap'!Q4,1,D7+1)</f>
-        <v>0.25336791476042175</v>
+        <v>0.30396657811849104</v>
       </c>
       <c r="T7" s="70">
         <f t="shared" si="0"/>
@@ -28478,7 +28486,7 @@
       </c>
       <c r="R8" s="81">
         <f>_xll.HLV5r3.Analytics.Miscellaneous.LinearInterp($F$19:$Q$30,'AUD ATM Bootstrap'!Q5,1,D8+1)</f>
-        <v>0.25489948340860924</v>
+        <v>0.30398596301386477</v>
       </c>
       <c r="T8" s="70">
         <f t="shared" si="0"/>
@@ -28541,7 +28549,7 @@
       </c>
       <c r="R9" s="81">
         <f>_xll.HLV5r3.Analytics.Miscellaneous.LinearInterp($F$19:$Q$30,'AUD ATM Bootstrap'!Q6,1,D9+1)</f>
-        <v>0.24579470144595142</v>
+        <v>0.28705033278390446</v>
       </c>
       <c r="T9" s="70">
         <f t="shared" si="0"/>
@@ -28603,7 +28611,7 @@
       </c>
       <c r="R10" s="81">
         <f>_xll.HLV5r3.Analytics.Miscellaneous.LinearInterp($F$19:$Q$30,'AUD ATM Bootstrap'!Q7,1,D10+1)</f>
-        <v>0.23852981248894067</v>
+        <v>0.26510364065952935</v>
       </c>
       <c r="T10" s="70">
         <f t="shared" si="0"/>
@@ -28665,7 +28673,7 @@
       </c>
       <c r="R11" s="81">
         <f>_xll.HLV5r3.Analytics.Miscellaneous.LinearInterp($F$19:$Q$30,'AUD ATM Bootstrap'!Q8,1,D11+1)</f>
-        <v>0.22249307457117415</v>
+        <v>0.2491669875486634</v>
       </c>
       <c r="T11" s="70">
         <f t="shared" si="0"/>
@@ -28727,7 +28735,7 @@
       </c>
       <c r="R12" s="81">
         <f>_xll.HLV5r3.Analytics.Miscellaneous.LinearInterp($F$19:$Q$30,'AUD ATM Bootstrap'!Q9,1,D12+1)</f>
-        <v>0.19400831183950115</v>
+        <v>0.23792334225424924</v>
       </c>
       <c r="T12" s="70">
         <f t="shared" si="0"/>
@@ -28789,7 +28797,7 @@
       </c>
       <c r="R13" s="81">
         <f>_xll.HLV5r3.Analytics.Miscellaneous.LinearInterp($F$19:$Q$30,'AUD ATM Bootstrap'!Q10,1,D13+1)</f>
-        <v>0.19862677320237543</v>
+        <v>0.23378566361896602</v>
       </c>
       <c r="T13" s="70">
         <f t="shared" si="0"/>
@@ -28851,7 +28859,7 @@
       </c>
       <c r="R14" s="81">
         <f>_xll.HLV5r3.Analytics.Miscellaneous.LinearInterp($F$19:$Q$30,'AUD ATM Bootstrap'!Q11,1,D14+1)</f>
-        <v>0.19456058047257524</v>
+        <v>0.22078634569261038</v>
       </c>
       <c r="T14" s="70">
         <f t="shared" si="0"/>
@@ -28913,7 +28921,7 @@
       </c>
       <c r="R15" s="81">
         <f>_xll.HLV5r3.Analytics.Miscellaneous.LinearInterp($F$19:$Q$30,'AUD ATM Bootstrap'!Q12,1,D15+1)</f>
-        <v>0.18773785211606014</v>
+        <v>0.21479792518846341</v>
       </c>
       <c r="T15" s="70">
         <f t="shared" si="0"/>
@@ -28976,7 +28984,7 @@
       </c>
       <c r="R16" s="81">
         <f>_xll.HLV5r3.Analytics.Miscellaneous.LinearInterp($F$19:$Q$30,'AUD ATM Bootstrap'!Q13,1,D16+1)</f>
-        <v>0.18171246893720888</v>
+        <v>0.20879584351741562</v>
       </c>
       <c r="T16" s="70">
         <f t="shared" si="0"/>
@@ -29038,7 +29046,7 @@
       </c>
       <c r="R17" s="81">
         <f>_xll.HLV5r3.Analytics.Miscellaneous.LinearInterp($F$19:$Q$30,'AUD ATM Bootstrap'!Q14,1,D17+1)</f>
-        <v>0.17994796759051229</v>
+        <v>0.20478871111098493</v>
       </c>
       <c r="T17" s="70">
         <f t="shared" si="0"/>
@@ -39057,23 +39065,23 @@
       </c>
       <c r="D26" s="52">
         <f t="array" ref="D26:D37">_xll.HLV5r3.Financial.Cache.SABRComputeVolatility($C$18,$C$23,B26:B37)</f>
-        <v>0.60065723760090894</v>
+        <v>0.62294100936694119</v>
       </c>
       <c r="F26" s="77">
         <f>_xll.HLV5r3.Financial.Cache.GetSABRParameter(F25,$C$18)</f>
-        <v>5.60544949038373E-2</v>
-      </c>
-      <c r="G26" s="77">
+        <v>5.6780069619567997E-2</v>
+      </c>
+      <c r="G26" s="77" t="e">
         <f>_xll.HLV5r3.Financial.Cache.GetSABRParameter(G25,$C$18)</f>
-        <v>0.5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H26" s="77">
         <f>_xll.HLV5r3.Financial.Cache.GetSABRParameter(H25,$C$18)</f>
-        <v>0.42124676645176623</v>
+        <v>0.47270109960313539</v>
       </c>
       <c r="I26" s="77">
         <f>_xll.HLV5r3.Financial.Cache.GetSABRParameter(I25,$C$18)</f>
-        <v>-0.15551034793006499</v>
+        <v>-0.29344571475985798</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -39085,7 +39093,7 @@
         <v>0.53183308641975302</v>
       </c>
       <c r="D27" s="52">
-        <v>0.51900986835622209</v>
+        <v>0.52706307758747573</v>
       </c>
     </row>
     <row r="28" spans="2:9">
@@ -39097,7 +39105,7 @@
         <v>0.44252955829904</v>
       </c>
       <c r="D28" s="52">
-        <v>0.46072469085067391</v>
+        <v>0.4583641811110179</v>
       </c>
       <c r="F28" t="s">
         <v>93</v>
@@ -39112,7 +39120,7 @@
         <v>0.36951117695473301</v>
       </c>
       <c r="D29" s="52">
-        <v>0.41567934055637445</v>
+        <v>0.40501501180018468</v>
       </c>
       <c r="F29" t="s">
         <v>92</v>
@@ -39127,7 +39135,7 @@
         <v>0.33234823593964302</v>
       </c>
       <c r="D30" s="52">
-        <v>0.3793427461338969</v>
+        <v>0.36179692149101256</v>
       </c>
       <c r="F30" t="s">
         <v>94</v>
@@ -39142,7 +39150,7 @@
         <v>0.322714853223594</v>
       </c>
       <c r="D31" s="52">
-        <v>0.34934759132563126</v>
+        <v>0.32608998491491081</v>
       </c>
     </row>
     <row r="32" spans="2:9">
@@ -39154,7 +39162,7 @@
         <v>0.31295926474622798</v>
       </c>
       <c r="D32" s="52">
-        <v>0.32436149646388868</v>
+        <v>0.29657701261289116</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -39166,7 +39174,7 @@
         <v>0.30469249931412901</v>
       </c>
       <c r="D33" s="52">
-        <v>0.28669310909429618</v>
+        <v>0.25437697236994761</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -39178,7 +39186,7 @@
         <v>0.27344808779149499</v>
       </c>
       <c r="D34" s="52">
-        <v>0.26334834861091944</v>
+        <v>0.23380066491501766</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -39190,7 +39198,7 @@
         <v>0.24632588203017799</v>
       </c>
       <c r="D35" s="52">
-        <v>0.2524300708310297</v>
+        <v>0.22995944109696712</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -39202,7 +39210,7 @@
         <v>0.228366617283951</v>
       </c>
       <c r="D36" s="52">
-        <v>0.25073942900797752</v>
+        <v>0.23469341385796927</v>
       </c>
     </row>
     <row r="37" spans="2:4">
@@ -39214,7 +39222,7 @@
         <v>0.21336661728395101</v>
       </c>
       <c r="D37" s="52">
-        <v>0.25447064600277458</v>
+        <v>0.24261311083935994</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -39246,11 +39254,11 @@
       </c>
       <c r="C42" s="52">
         <f>_xll.HLV5r3.Financial.Cache.ComputeVolatility($C$14,B42,$C$22,$C$39)</f>
-        <v>0.50107168656273204</v>
+        <v>0.49269119942659501</v>
       </c>
       <c r="D42" s="52">
         <f t="array" ref="D42:D53">_xll.HLV5r3.Financial.Cache.SABRComputeVolatility($C$18,$C$39,B42:B53)</f>
-        <v>0.49924639300110535</v>
+        <v>0.51984166084930816</v>
       </c>
     </row>
     <row r="43" spans="2:4">
@@ -39259,10 +39267,10 @@
       </c>
       <c r="C43" s="52">
         <f>_xll.HLV5r3.Financial.Cache.ComputeVolatility($C$14,B43,$C$22,$C$39)</f>
-        <v>0.43181162375805998</v>
+        <v>0.428714762897139</v>
       </c>
       <c r="D43" s="52">
-        <v>0.43481898643306816</v>
+        <v>0.44090532534682109</v>
       </c>
     </row>
     <row r="44" spans="2:4">
@@ -39271,10 +39279,10 @@
       </c>
       <c r="C44" s="52">
         <f>_xll.HLV5r3.Financial.Cache.ComputeVolatility($C$14,B44,$C$22,$C$39)</f>
-        <v>0.38864377756854601</v>
+        <v>0.38868997141976602</v>
       </c>
       <c r="D44" s="52">
-        <v>0.38904401345962669</v>
+        <v>0.38444783779959213</v>
       </c>
     </row>
     <row r="45" spans="2:4">
@@ -39283,10 +39291,10 @@
       </c>
       <c r="C45" s="52">
         <f>_xll.HLV5r3.Financial.Cache.ComputeVolatility($C$14,B45,$C$22,$C$39)</f>
-        <v>0.354326987104157</v>
+        <v>0.35764653339646701</v>
       </c>
       <c r="D45" s="52">
-        <v>0.35375545205051528</v>
+        <v>0.34071311685039196</v>
       </c>
     </row>
     <row r="46" spans="2:4">
@@ -39295,10 +39303,10 @@
       </c>
       <c r="C46" s="52">
         <f>_xll.HLV5r3.Financial.Cache.ComputeVolatility($C$14,B46,$C$22,$C$39)</f>
-        <v>0.32667045064934302</v>
+        <v>0.33062471707673502</v>
       </c>
       <c r="D46" s="52">
-        <v>0.3252902964135736</v>
+        <v>0.30540128491090995</v>
       </c>
     </row>
     <row r="47" spans="2:4">
@@ -39307,10 +39315,10 @@
       </c>
       <c r="C47" s="52">
         <f>_xll.HLV5r3.Financial.Cache.ComputeVolatility($C$14,B47,$C$22,$C$39)</f>
-        <v>0.30358195158894502</v>
+        <v>0.30584895658911798</v>
       </c>
       <c r="D47" s="52">
-        <v>0.30170878359125541</v>
+        <v>0.27635285920478136</v>
       </c>
     </row>
     <row r="48" spans="2:4">
@@ -39319,10 +39327,10 @@
       </c>
       <c r="C48" s="52">
         <f>_xll.HLV5r3.Financial.Cache.ComputeVolatility($C$14,B48,$C$22,$C$39)</f>
-        <v>0.28252150637446799</v>
+        <v>0.282687006687179</v>
       </c>
       <c r="D48" s="52">
-        <v>0.28188044777784493</v>
+        <v>0.25246999638775075</v>
       </c>
     </row>
     <row r="49" spans="2:4">
@@ -39331,10 +39339,10 @@
       </c>
       <c r="C49" s="52">
         <f>_xll.HLV5r3.Financial.Cache.ComputeVolatility($C$14,B49,$C$22,$C$39)</f>
-        <v>0.246085826214125</v>
+        <v>0.24361212982164401</v>
       </c>
       <c r="D49" s="52">
-        <v>0.25094277510555946</v>
+        <v>0.2185560902529729</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -39343,10 +39351,10 @@
       </c>
       <c r="C50" s="52">
         <f>_xll.HLV5r3.Financial.Cache.ComputeVolatility($C$14,B50,$C$22,$C$39)</f>
-        <v>0.224802807883416</v>
+        <v>0.22562695703413099</v>
       </c>
       <c r="D50" s="52">
-        <v>0.22932858538622677</v>
+        <v>0.2018745517490419</v>
       </c>
     </row>
     <row r="51" spans="2:4">
@@ -39355,10 +39363,10 @@
       </c>
       <c r="C51" s="52">
         <f>_xll.HLV5r3.Financial.Cache.ComputeVolatility($C$14,B51,$C$22,$C$39)</f>
-        <v>0.21503281610916899</v>
+        <v>0.22021115087018001</v>
       </c>
       <c r="D51" s="52">
-        <v>0.21538747942511571</v>
+        <v>0.19826906935467298</v>
       </c>
     </row>
     <row r="52" spans="2:4">
@@ -39367,10 +39375,10 @@
       </c>
       <c r="C52" s="52">
         <f>_xll.HLV5r3.Financial.Cache.ComputeVolatility($C$14,B52,$C$22,$C$39)</f>
-        <v>0.20823477048899999</v>
+        <v>0.21698418453277701</v>
       </c>
       <c r="D52" s="52">
-        <v>0.20764712833135357</v>
+        <v>0.2015479131516339</v>
       </c>
     </row>
     <row r="53" spans="2:4">
@@ -39379,10 +39387,10 @@
       </c>
       <c r="C53" s="52">
         <f>_xll.HLV5r3.Financial.Cache.ComputeVolatility($C$14,B53,$C$22,$C$39)</f>
-        <v>0.202287780593956</v>
+        <v>0.21422937614836299</v>
       </c>
       <c r="D53" s="52">
-        <v>0.20444860743888787</v>
+        <v>0.20754813989891371</v>
       </c>
     </row>
     <row r="55" spans="2:4">
@@ -39414,11 +39422,11 @@
       </c>
       <c r="C58" s="52">
         <f>_xll.HLV5r3.Financial.Cache.ComputeVolatility($C$14,B58,$C$22,$C$55)</f>
-        <v>0.48523754552468501</v>
+        <v>0.45503601981902198</v>
       </c>
       <c r="D58" s="52">
         <f t="array" ref="D58:D69">_xll.HLV5r3.Financial.Cache.SABRComputeVolatility($C$18,$C$55,B58:B69)</f>
-        <v>0.49302809960090938</v>
+        <v>0.51388244209957279</v>
       </c>
     </row>
     <row r="59" spans="2:4">
@@ -39427,10 +39435,10 @@
       </c>
       <c r="C59" s="52">
         <f>_xll.HLV5r3.Financial.Cache.ComputeVolatility($C$14,B59,$C$22,$C$55)</f>
-        <v>0.41851621859649102</v>
+        <v>0.39604996142853499</v>
       </c>
       <c r="D59" s="52">
-        <v>0.42585014287774392</v>
+        <v>0.43140550486263174</v>
       </c>
     </row>
     <row r="60" spans="2:4">
@@ -39439,10 +39447,10 @@
       </c>
       <c r="C60" s="52">
         <f>_xll.HLV5r3.Financial.Cache.ComputeVolatility($C$14,B60,$C$22,$C$55)</f>
-        <v>0.376702619389226</v>
+        <v>0.36125515840828099</v>
       </c>
       <c r="D60" s="52">
-        <v>0.37767489507659935</v>
+        <v>0.37186230860114283</v>
       </c>
     </row>
     <row r="61" spans="2:4">
@@ -39451,10 +39459,10 @@
       </c>
       <c r="C61" s="52">
         <f>_xll.HLV5r3.Financial.Cache.ComputeVolatility($C$14,B61,$C$22,$C$55)</f>
-        <v>0.34394574784167797</v>
+        <v>0.33414856561132</v>
       </c>
       <c r="D61" s="52">
-        <v>0.34019874195459826</v>
+        <v>0.32528794401203703</v>
       </c>
     </row>
     <row r="62" spans="2:4">
@@ -39463,10 +39471,10 @@
       </c>
       <c r="C62" s="52">
         <f>_xll.HLV5r3.Financial.Cache.ComputeVolatility($C$14,B62,$C$22,$C$55)</f>
-        <v>0.317038020120749</v>
+        <v>0.30922922146894899</v>
       </c>
       <c r="D62" s="52">
-        <v>0.30968522480387223</v>
+        <v>0.28728420964777113</v>
       </c>
     </row>
     <row r="63" spans="2:4">
@@ -39475,10 +39483,10 @@
       </c>
       <c r="C63" s="52">
         <f>_xll.HLV5r3.Financial.Cache.ComputeVolatility($C$14,B63,$C$22,$C$55)</f>
-        <v>0.29507356474010299</v>
+        <v>0.28574042016807</v>
       </c>
       <c r="D63" s="52">
-        <v>0.28415915459572466</v>
+        <v>0.25568403220929292</v>
       </c>
     </row>
     <row r="64" spans="2:4">
@@ -39487,10 +39495,10 @@
       </c>
       <c r="C64" s="52">
         <f>_xll.HLV5r3.Financial.Cache.ComputeVolatility($C$14,B64,$C$22,$C$55)</f>
-        <v>0.27309289154587302</v>
+        <v>0.26243650160293702</v>
       </c>
       <c r="D64" s="52">
-        <v>0.26248411472083782</v>
+        <v>0.22950794732989116</v>
       </c>
     </row>
     <row r="65" spans="2:4">
@@ -39499,10 +39507,10 @@
       </c>
       <c r="C65" s="52">
         <f>_xll.HLV5r3.Financial.Cache.ComputeVolatility($C$14,B65,$C$22,$C$55)</f>
-        <v>0.23709289154587301</v>
+        <v>0.22229678254893701</v>
       </c>
       <c r="D65" s="52">
-        <v>0.22827133590783341</v>
+        <v>0.1932373378580777</v>
       </c>
     </row>
     <row r="66" spans="2:4">
@@ -39511,10 +39519,10 @@
       </c>
       <c r="C66" s="52">
         <f>_xll.HLV5r3.Financial.Cache.ComputeVolatility($C$14,B66,$C$22,$C$55)</f>
-        <v>0.215979436226439</v>
+        <v>0.20117300624196099</v>
       </c>
       <c r="D66" s="52">
-        <v>0.2044593888462066</v>
+        <v>0.1798183525309652</v>
       </c>
     </row>
     <row r="67" spans="2:4">
@@ -39523,10 +39531,10 @@
       </c>
       <c r="C67" s="52">
         <f>_xll.HLV5r3.Financial.Cache.ComputeVolatility($C$14,B67,$C$22,$C$55)</f>
-        <v>0.20500061926680099</v>
+        <v>0.192582033739786</v>
       </c>
       <c r="D67" s="52">
-        <v>0.19019906056205602</v>
+        <v>0.18267973918249142</v>
       </c>
     </row>
     <row r="68" spans="2:4">
@@ -39535,10 +39543,10 @@
       </c>
       <c r="C68" s="52">
         <f>_xll.HLV5r3.Financial.Cache.ComputeVolatility($C$14,B68,$C$22,$C$55)</f>
-        <v>0.199036163886156</v>
+        <v>0.18837102520584301</v>
       </c>
       <c r="D68" s="52">
-        <v>0.18418549112810934</v>
+        <v>0.19170166676571873</v>
       </c>
     </row>
     <row r="69" spans="2:4">
@@ -39547,10 +39555,10 @@
       </c>
       <c r="C69" s="52">
         <f>_xll.HLV5r3.Financial.Cache.ComputeVolatility($C$14,B69,$C$22,$C$55)</f>
-        <v>0.19413029239981999</v>
+        <v>0.18439401492039301</v>
       </c>
       <c r="D69" s="52">
-        <v>0.18393158712252022</v>
+        <v>0.20204316547720863</v>
       </c>
     </row>
     <row r="107" spans="3:3">
